--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aev\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37121C1F-C533-4302-8782-707385329132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF5036E-3A0E-4838-9326-C24866F9EF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable" sheetId="2" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="247">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,13 +534,430 @@
   </si>
   <si>
     <t>凤凰</t>
+  </si>
+  <si>
+    <t>事件id</t>
+  </si>
+  <si>
+    <t>事件名</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>文案1</t>
+  </si>
+  <si>
+    <t>事件类型</t>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>交互类型</t>
+  </si>
+  <si>
+    <t>文案2</t>
+  </si>
+  <si>
+    <t>指向表</t>
+  </si>
+  <si>
+    <t>指向id</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>苍龙现世</t>
+  </si>
+  <si>
+    <t>你遇到了一只漂亮妹纸，要不要？</t>
+  </si>
+  <si>
+    <t>招募武将</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>大于5</t>
+  </si>
+  <si>
+    <t>是否购买（购买/跳过）</t>
+  </si>
+  <si>
+    <t>太丑了不要</t>
+  </si>
+  <si>
+    <t>RoleTable</t>
+  </si>
+  <si>
+    <t>扣除金币，获得武将</t>
+  </si>
+  <si>
+    <t>白虎现世</t>
+  </si>
+  <si>
+    <t>朱雀现世</t>
+  </si>
+  <si>
+    <t>玄武现世</t>
+  </si>
+  <si>
+    <t>麒麟现世</t>
+  </si>
+  <si>
+    <t>凤凰现世</t>
+  </si>
+  <si>
+    <t>士气</t>
+  </si>
+  <si>
+    <t>大于80</t>
+  </si>
+  <si>
+    <t>是否购买（购买/跳过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娥皇</t>
+  </si>
+  <si>
+    <t>兵主</t>
+  </si>
+  <si>
+    <t>天帝</t>
+  </si>
+  <si>
+    <t>帝天角</t>
+  </si>
+  <si>
+    <t>发现装备</t>
+  </si>
+  <si>
+    <t>装备表</t>
+  </si>
+  <si>
+    <t>扣除金币，获得武将，武器技能生效</t>
+  </si>
+  <si>
+    <t>嗜血齿</t>
+  </si>
+  <si>
+    <t>奎木甲</t>
+  </si>
+  <si>
+    <t>无相爪</t>
+  </si>
+  <si>
+    <t>炎火羽</t>
+  </si>
+  <si>
+    <t>腾蛇鳞</t>
+  </si>
+  <si>
+    <t>九霄云翼</t>
+  </si>
+  <si>
+    <t>玄冰齿骨</t>
+  </si>
+  <si>
+    <t>阴蛟鳞</t>
+  </si>
+  <si>
+    <t>应龙鳞</t>
+  </si>
+  <si>
+    <t>撼地杖</t>
+  </si>
+  <si>
+    <t>落日弓</t>
+  </si>
+  <si>
+    <t>慑天印</t>
+  </si>
+  <si>
+    <t>辟邪双鞭</t>
+  </si>
+  <si>
+    <t>伏魔双剑</t>
+  </si>
+  <si>
+    <t>日月混元珠</t>
+  </si>
+  <si>
+    <t>裂风翅</t>
+  </si>
+  <si>
+    <t>符水钵</t>
+  </si>
+  <si>
+    <t>玄阴琵琶</t>
+  </si>
+  <si>
+    <t>九离火器</t>
+  </si>
+  <si>
+    <t>骁龙之玉</t>
+  </si>
+  <si>
+    <t>五色石</t>
+  </si>
+  <si>
+    <t>破天斧</t>
+  </si>
+  <si>
+    <t>戮心刺</t>
+  </si>
+  <si>
+    <t>神鬼戟</t>
+  </si>
+  <si>
+    <t>轩辕剑</t>
+  </si>
+  <si>
+    <t>神农鞭</t>
+  </si>
+  <si>
+    <t>玄天八卦印</t>
+  </si>
+  <si>
+    <t>武将典故1</t>
+  </si>
+  <si>
+    <t>发现武将典故</t>
+  </si>
+  <si>
+    <t>（跳过）</t>
+  </si>
+  <si>
+    <t>典故表</t>
+  </si>
+  <si>
+    <t>获得数值加成</t>
+  </si>
+  <si>
+    <t>武将典故2</t>
+  </si>
+  <si>
+    <t>离火阵</t>
+  </si>
+  <si>
+    <t>发现羁绊典故</t>
+  </si>
+  <si>
+    <t>FetterTable</t>
+  </si>
+  <si>
+    <t>符水阵</t>
+  </si>
+  <si>
+    <t>破军阵</t>
+  </si>
+  <si>
+    <t>四象阵</t>
+  </si>
+  <si>
+    <t>天地阵</t>
+  </si>
+  <si>
+    <t>伏魔阵</t>
+  </si>
+  <si>
+    <t>丰收</t>
+  </si>
+  <si>
+    <t>丰收咯</t>
+  </si>
+  <si>
+    <t>经济事件</t>
+  </si>
+  <si>
+    <t>民心</t>
+  </si>
+  <si>
+    <t>鸡肋经济</t>
+  </si>
+  <si>
+    <t>资源增减</t>
+  </si>
+  <si>
+    <t>庆典</t>
+  </si>
+  <si>
+    <t>祭祀</t>
+  </si>
+  <si>
+    <t>昆山显圣</t>
+  </si>
+  <si>
+    <t>天降祥瑞</t>
+  </si>
+  <si>
+    <t>瘟疫</t>
+  </si>
+  <si>
+    <t>干旱</t>
+  </si>
+  <si>
+    <t>洪水</t>
+  </si>
+  <si>
+    <t>地震</t>
+  </si>
+  <si>
+    <t>暴乱</t>
+  </si>
+  <si>
+    <t>探索破庙1</t>
+  </si>
+  <si>
+    <t>经济事件（无提示）</t>
+  </si>
+  <si>
+    <t>A/B/跳过</t>
+  </si>
+  <si>
+    <t>611_1/611_2</t>
+  </si>
+  <si>
+    <t>探索破庙2</t>
+  </si>
+  <si>
+    <t>612_1/612_2</t>
+  </si>
+  <si>
+    <t>613_1/613_2</t>
+  </si>
+  <si>
+    <t>614_1/614_2</t>
+  </si>
+  <si>
+    <t>615_1/615_2</t>
+  </si>
+  <si>
+    <t>616_1/616_2</t>
+  </si>
+  <si>
+    <t>617_1/617_2</t>
+  </si>
+  <si>
+    <t>618_1/618_2</t>
+  </si>
+  <si>
+    <t>619_1/619_2</t>
+  </si>
+  <si>
+    <t>620_1/620_2</t>
+  </si>
+  <si>
+    <t>苛捐杂税1</t>
+  </si>
+  <si>
+    <t>经济事件（有提示）</t>
+  </si>
+  <si>
+    <t>621_1/621_2</t>
+  </si>
+  <si>
+    <t>苛捐杂税2</t>
+  </si>
+  <si>
+    <t>622_1/622_2</t>
+  </si>
+  <si>
+    <t>623_1/623_2</t>
+  </si>
+  <si>
+    <t>624_1/624_2</t>
+  </si>
+  <si>
+    <t>625_1/625_2</t>
+  </si>
+  <si>
+    <t>626_1/626_2</t>
+  </si>
+  <si>
+    <t>627_1/627_2</t>
+  </si>
+  <si>
+    <t>628_1/628_2</t>
+  </si>
+  <si>
+    <t>629_1/629_2</t>
+  </si>
+  <si>
+    <t>630_1/630_2</t>
+  </si>
+  <si>
+    <t>遇到宝箱1</t>
+  </si>
+  <si>
+    <t>武将意外（无提示）</t>
+  </si>
+  <si>
+    <t>鸡肋属性</t>
+  </si>
+  <si>
+    <t>701_1/701_2</t>
+  </si>
+  <si>
+    <t>属性增减</t>
+  </si>
+  <si>
+    <t>遇到宝箱2</t>
+  </si>
+  <si>
+    <t>702_1/702_2</t>
+  </si>
+  <si>
+    <t>属性增加</t>
+  </si>
+  <si>
+    <t>老大，前面有什么在闪闪发亮哎</t>
+  </si>
+  <si>
+    <t>瞅瞅呗/赶路呗</t>
+  </si>
+  <si>
+    <t>703_1/703_2</t>
+  </si>
+  <si>
+    <t>704_1/704_2</t>
+  </si>
+  <si>
+    <t>705_1/705_2</t>
+  </si>
+  <si>
+    <t>706_1/706_2</t>
+  </si>
+  <si>
+    <t>707_1/707_2</t>
+  </si>
+  <si>
+    <t>708_1/708_2</t>
+  </si>
+  <si>
+    <t>709_1/709_2</t>
+  </si>
+  <si>
+    <t>710_1/710_2</t>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +1011,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -603,7 +1035,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -629,6 +1061,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -636,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,6 +1137,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -956,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3405F25B-AC3A-4189-AFD7-78B0BB9AB67B}">
   <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11976,14 +12456,2917 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38B3E1-EFBC-4864-8968-EC9F1549BB6F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="12" customWidth="1"/>
+    <col min="6" max="7" width="9.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>101</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="14">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="14">
+        <v>101</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="6">
+        <v>102</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>103</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="6">
+        <v>103</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>104</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="6">
+        <v>104</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="6">
+        <v>105</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>106</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="6">
+        <v>106</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>107</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="6">
+        <v>19</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>108</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="6">
+        <v>29</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>109</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="6">
+        <v>39</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>110</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="6">
+        <v>49</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>111</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="6">
+        <v>59</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>112</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="6">
+        <v>69</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>113</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="6">
+        <v>79</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="6">
+        <v>89</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>115</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="6">
+        <v>99</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>216</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="6">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>217</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="6">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>218</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="6">
+        <v>18</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>219</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="6">
+        <v>19</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>227</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="6">
+        <v>27</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>228</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="6">
+        <v>28</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>229</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="6">
+        <v>29</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>237</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="6">
+        <v>37</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>238</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="6">
+        <v>38</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>239</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="6">
+        <v>39</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>247</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="6">
+        <v>47</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>248</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="6">
+        <v>48</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>249</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="6">
+        <v>49</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>257</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="6">
+        <v>57</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>258</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="6">
+        <v>58</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>259</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="6">
+        <v>59</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>267</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="6">
+        <v>67</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>268</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K34" s="6">
+        <v>68</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>269</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="6">
+        <v>10</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35" s="6">
+        <v>69</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>277</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="6">
+        <v>10</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="6">
+        <v>77</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>278</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="6">
+        <v>10</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="6">
+        <v>78</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>279</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="6">
+        <v>10</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K38" s="6">
+        <v>79</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>287</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="6">
+        <v>10</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39" s="6">
+        <v>87</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>288</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="6">
+        <v>10</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40" s="6">
+        <v>88</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>289</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="6">
+        <v>10</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="6">
+        <v>89</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>297</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="6">
+        <v>10</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="6">
+        <v>97</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>298</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="6">
+        <v>10</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="6">
+        <v>98</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>299</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="6">
+        <v>10</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="6">
+        <v>99</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>301</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="6">
+        <v>10</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>302</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="6">
+        <v>10</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K46" s="6">
+        <v>2</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>501</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="6">
+        <v>10</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" s="6">
+        <v>101</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>502</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="6">
+        <v>10</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K48" s="6">
+        <v>102</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>503</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="6">
+        <v>10</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K49" s="6">
+        <v>103</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>504</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="6">
+        <v>10</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K50" s="6">
+        <v>104</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>505</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="6">
+        <v>10</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K51" s="6">
+        <v>105</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>506</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="17">
+        <v>10</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K52" s="17">
+        <v>106</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>601</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="14">
+        <v>10</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K53" s="14">
+        <f>A53</f>
+        <v>601</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>602</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="6">
+        <v>10</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" ref="K54:K62" si="0">A54</f>
+        <v>602</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>603</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="6">
+        <v>10</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="0"/>
+        <v>603</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>604</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="6">
+        <v>10</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="0"/>
+        <v>604</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>605</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="6">
+        <v>10</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>606</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="6">
+        <v>10</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="0"/>
+        <v>606</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>607</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="6">
+        <v>10</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K59" s="6">
+        <f t="shared" si="0"/>
+        <v>607</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>608</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="6">
+        <v>10</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="0"/>
+        <v>608</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>609</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="6">
+        <v>10</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="0"/>
+        <v>609</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>610</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="6">
+        <v>10</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>611</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="6">
+        <v>30</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>612</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="6">
+        <v>30</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>613</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="6">
+        <v>30</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>614</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="6">
+        <v>30</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>615</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="6">
+        <v>30</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>616</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="6">
+        <v>30</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>617</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="6">
+        <v>30</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>618</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="6">
+        <v>30</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>619</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="6">
+        <v>30</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>620</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="6">
+        <v>30</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>621</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="6">
+        <v>30</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>622</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="6">
+        <v>30</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>623</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="6">
+        <v>30</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>624</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="6">
+        <v>30</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>625</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="6">
+        <v>30</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>626</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="6">
+        <v>30</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>627</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="6">
+        <v>30</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>628</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="6">
+        <v>30</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>629</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="6">
+        <v>30</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
+        <v>630</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="17">
+        <v>30</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>701</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="6">
+        <v>30</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>702</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="6">
+        <v>30</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>703</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="6">
+        <v>30</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>704</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="6">
+        <v>30</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
+        <v>705</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" s="6">
+        <v>30</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
+        <v>706</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" s="6">
+        <v>30</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>707</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="6">
+        <v>30</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>708</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="6">
+        <v>30</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>709</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="6">
+        <v>30</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
+        <v>710</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="6">
+        <v>30</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF5036E-3A0E-4838-9326-C24866F9EF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071D8B5-DCCF-4054-A5DF-A588117D6CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-555" yWindow="465" windowWidth="28155" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable" sheetId="2" r:id="rId1"/>
     <sheet name="RandowTable" sheetId="1" r:id="rId2"/>
     <sheet name="ChickenRibs" sheetId="3" r:id="rId3"/>
+    <sheet name="FightBilling" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -205,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="256">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -950,6 +951,42 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方完胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方大胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方小胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方险胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12458,7 +12495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38B3E1-EFBC-4864-8968-EC9F1549BB6F}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
@@ -12467,7 +12504,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.125" style="12" customWidth="1"/>
     <col min="6" max="7" width="9.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.75" style="6" customWidth="1"/>
@@ -15371,4 +15408,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38876948-DD73-470D-B747-FDDBCF7CE1EB}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,18 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071D8B5-DCCF-4054-A5DF-A588117D6CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB337E0A-D8F5-4391-A82E-9DC9056A65A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-555" yWindow="465" windowWidth="28155" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable" sheetId="2" r:id="rId1"/>
     <sheet name="RandowTable" sheetId="1" r:id="rId2"/>
     <sheet name="ChickenRibs" sheetId="3" r:id="rId3"/>
-    <sheet name="FightBilling" sheetId="4" r:id="rId4"/>
+    <sheet name="ChickenRibsEconomic" sheetId="4" r:id="rId4"/>
+    <sheet name="ChickenRibsAttribute" sheetId="5" r:id="rId5"/>
+    <sheet name="Equipment" sheetId="6" r:id="rId6"/>
+    <sheet name="FetterTable" sheetId="7" r:id="rId7"/>
+    <sheet name="Allusions" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -129,6 +133,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BBA516C2-333A-4DD4-B840-2BEDDDA4BEBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+价格</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{09600881-A176-42FC-A6CC-73CDB1E23882}">
       <text>
         <r>
@@ -205,8 +235,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{016E8768-A5EB-4A98-BD56-C84E28219743}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+武将ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CBBA20E6-CE49-471C-BA5E-6E8B48D9DF37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+百分比</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="365">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,9 +319,6 @@
     <t>rarity</t>
   </si>
   <si>
-    <t>recruitingMoney</t>
-  </si>
-  <si>
     <t>attack</t>
   </si>
   <si>
@@ -769,9 +854,6 @@
     <t>丰收</t>
   </si>
   <si>
-    <t>丰收咯</t>
-  </si>
-  <si>
     <t>经济事件</t>
   </si>
   <si>
@@ -914,12 +996,6 @@
   </si>
   <si>
     <t>属性增加</t>
-  </si>
-  <si>
-    <t>老大，前面有什么在闪闪发亮哎</t>
-  </si>
-  <si>
-    <t>瞅瞅呗/赶路呗</t>
   </si>
   <si>
     <t>703_1/703_2</t>
@@ -954,47 +1030,383 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余士兵</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>金钱</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>611_1</t>
+  </si>
+  <si>
+    <t>611_2</t>
+  </si>
+  <si>
+    <t>612_1</t>
+  </si>
+  <si>
+    <t>612_2</t>
+  </si>
+  <si>
+    <t>613_1</t>
+  </si>
+  <si>
+    <t>613_2</t>
+  </si>
+  <si>
+    <t>614_1</t>
+  </si>
+  <si>
+    <t>614_2</t>
+  </si>
+  <si>
+    <t>615_1</t>
+  </si>
+  <si>
+    <t>615_2</t>
+  </si>
+  <si>
+    <t>616_1</t>
+  </si>
+  <si>
+    <t>616_2</t>
+  </si>
+  <si>
+    <t>617_1</t>
+  </si>
+  <si>
+    <t>617_2</t>
+  </si>
+  <si>
+    <t>618_1</t>
+  </si>
+  <si>
+    <t>618_2</t>
+  </si>
+  <si>
+    <t>619_1</t>
+  </si>
+  <si>
+    <t>619_2</t>
+  </si>
+  <si>
+    <t>620_1</t>
+  </si>
+  <si>
+    <t>620_2</t>
+  </si>
+  <si>
+    <t>621_1</t>
+  </si>
+  <si>
+    <t>621_2</t>
+  </si>
+  <si>
+    <t>622_1</t>
+  </si>
+  <si>
+    <t>622_2</t>
+  </si>
+  <si>
+    <t>623_1</t>
+  </si>
+  <si>
+    <t>623_2</t>
+  </si>
+  <si>
+    <t>624_1</t>
+  </si>
+  <si>
+    <t>624_2</t>
+  </si>
+  <si>
+    <t>625_1</t>
+  </si>
+  <si>
+    <t>625_2</t>
+  </si>
+  <si>
+    <t>626_1</t>
+  </si>
+  <si>
+    <t>626_2</t>
+  </si>
+  <si>
+    <t>627_1</t>
+  </si>
+  <si>
+    <t>627_2</t>
+  </si>
+  <si>
+    <t>628_1</t>
+  </si>
+  <si>
+    <t>628_2</t>
+  </si>
+  <si>
+    <t>629_1</t>
+  </si>
+  <si>
+    <t>629_2</t>
+  </si>
+  <si>
+    <t>630_1</t>
+  </si>
+  <si>
+    <t>630_2</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>士兵数</t>
+  </si>
+  <si>
+    <t>701_1</t>
+  </si>
+  <si>
+    <t>701_2</t>
+  </si>
+  <si>
+    <t>702_1</t>
+  </si>
+  <si>
+    <t>702_2</t>
+  </si>
+  <si>
+    <t>703_1</t>
+  </si>
+  <si>
+    <t>703_2</t>
+  </si>
+  <si>
+    <t>704_1</t>
+  </si>
+  <si>
+    <t>704_2</t>
+  </si>
+  <si>
+    <t>705_1</t>
+  </si>
+  <si>
+    <t>705_2</t>
+  </si>
+  <si>
+    <t>706_1</t>
+  </si>
+  <si>
+    <t>706_2</t>
+  </si>
+  <si>
+    <t>707_1</t>
+  </si>
+  <si>
+    <t>707_2</t>
+  </si>
+  <si>
+    <t>708_1</t>
+  </si>
+  <si>
+    <t>708_2</t>
+  </si>
+  <si>
+    <t>709_1</t>
+  </si>
+  <si>
+    <t>709_2</t>
+  </si>
+  <si>
+    <t>710_1</t>
+  </si>
+  <si>
+    <t>710_2</t>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胜利</t>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>装备价格</t>
+  </si>
+  <si>
+    <t>士兵</t>
+  </si>
+  <si>
+    <t>recruitingMoney</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对方完胜</t>
+    <t>羁绊名</t>
+  </si>
+  <si>
+    <t>武将id</t>
+  </si>
+  <si>
+    <t>攻击加成</t>
+  </si>
+  <si>
+    <t>防御加成</t>
+  </si>
+  <si>
+    <t>士兵加成</t>
+  </si>
+  <si>
+    <t>[29,77,98,103]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对方大胜</t>
+    <t>[39,69,97,105]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对方小胜</t>
+    <t>[19,67,68,89,104]</t>
+  </si>
+  <si>
+    <t>[17,18,27,28,99,101]</t>
+  </si>
+  <si>
+    <t>[19,59,79,106]</t>
+  </si>
+  <si>
+    <t>[49,57,58,87,88]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对方险胜</t>
+    <t>[77,78]</t>
+  </si>
+  <si>
+    <t>[97,88]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>[67,68]</t>
+  </si>
+  <si>
+    <t>[97,87]</t>
+  </si>
+  <si>
+    <t>[89,97]</t>
+  </si>
+  <si>
+    <t>[99,97,98]</t>
+  </si>
+  <si>
+    <t>[89,87]</t>
+  </si>
+  <si>
+    <t>[97,39]</t>
+  </si>
+  <si>
+    <t>[98,87,98]</t>
+  </si>
+  <si>
+    <t>[57,58]</t>
+  </si>
+  <si>
+    <t>[29,48]</t>
+  </si>
+  <si>
+    <t>[29,47]</t>
+  </si>
+  <si>
+    <t>[19,16,17,18]</t>
+  </si>
+  <si>
+    <t>[59,39]</t>
+  </si>
+  <si>
+    <t>[49,37]</t>
+  </si>
+  <si>
+    <t>[59,78]</t>
+  </si>
+  <si>
+    <t>[69,79]</t>
+  </si>
+  <si>
+    <t>[99,79]</t>
+  </si>
+  <si>
+    <t>[64,65,66]</t>
+  </si>
+  <si>
+    <t>[28,15]</t>
+  </si>
+  <si>
+    <t>[98,71,72]</t>
+  </si>
+  <si>
+    <t>[91,31]</t>
+  </si>
+  <si>
+    <t>[51,11]</t>
+  </si>
+  <si>
+    <t>[37,61]</t>
+  </si>
+  <si>
+    <t>[78,82]</t>
+  </si>
+  <si>
+    <t>[44,66]</t>
+  </si>
+  <si>
+    <t>[95,91]</t>
+  </si>
+  <si>
+    <t>[24,14]</t>
+  </si>
+  <si>
+    <t>[45,36]</t>
+  </si>
+  <si>
+    <t>[44,45,42,43]</t>
+  </si>
+  <si>
+    <t>[48,96]</t>
+  </si>
+  <si>
+    <t>[77,74,75,76]</t>
+  </si>
+  <si>
+    <t>[94,32]</t>
+  </si>
+  <si>
+    <t>[96,93]</t>
+  </si>
+  <si>
+    <t>[38,83]</t>
+  </si>
+  <si>
+    <t>[84,51]</t>
+  </si>
+  <si>
+    <t>[27,26,72]</t>
+  </si>
+  <si>
+    <t>典故</t>
+  </si>
+  <si>
+    <t>逐鹿之战</t>
+  </si>
+  <si>
+    <t>精卫填海</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1473,34 @@
       <color theme="1" tint="0.499984740745262"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1145,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1182,6 +1622,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1474,7 +1916,7 @@
   <dimension ref="A1:U88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I11:I12"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1496,52 +1938,52 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="U1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
@@ -1549,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8">
         <v>9</v>
@@ -1602,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8">
         <v>9</v>
@@ -1655,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
         <v>9</v>
@@ -1708,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <v>9</v>
@@ -1761,7 +2203,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8">
         <v>9</v>
@@ -1814,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8">
         <v>9</v>
@@ -1856,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="5"/>
@@ -1869,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8">
         <v>9</v>
@@ -1911,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="5"/>
@@ -1924,7 +2366,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8">
         <v>9</v>
@@ -1966,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="5"/>
@@ -1979,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8">
         <v>9</v>
@@ -2021,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="5"/>
@@ -2034,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8">
         <v>9</v>
@@ -2087,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8">
         <v>9</v>
@@ -2140,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8">
         <v>9</v>
@@ -2193,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8">
         <v>9</v>
@@ -2246,7 +2688,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8">
         <v>9</v>
@@ -2299,7 +2741,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8">
         <v>9</v>
@@ -2352,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8">
         <v>9</v>
@@ -2394,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="5"/>
@@ -2407,7 +2849,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="8">
         <v>9</v>
@@ -2449,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="5"/>
@@ -2462,7 +2904,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8">
         <v>9</v>
@@ -2504,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="5">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="5"/>
@@ -2517,7 +2959,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8">
         <v>9</v>
@@ -2570,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8">
         <v>9</v>
@@ -2623,7 +3065,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="8">
         <v>9</v>
@@ -2676,7 +3118,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8">
         <v>9</v>
@@ -2729,7 +3171,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="8">
         <v>9</v>
@@ -2782,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="8">
         <v>9</v>
@@ -2835,7 +3277,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="8">
         <v>9</v>
@@ -2877,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="5">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="5"/>
@@ -2890,7 +3332,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="8">
         <v>9</v>
@@ -2932,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="5"/>
@@ -2945,7 +3387,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="8">
         <v>9</v>
@@ -2987,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="5"/>
@@ -3000,7 +3442,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
@@ -3053,7 +3495,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="8">
         <v>2</v>
@@ -3106,7 +3548,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
@@ -3159,7 +3601,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="8">
         <v>9</v>
@@ -3212,7 +3654,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="8">
         <v>9</v>
@@ -3265,7 +3707,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="8">
         <v>9</v>
@@ -3318,7 +3760,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="8">
         <v>3</v>
@@ -3360,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="5">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="5"/>
@@ -3373,7 +3815,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="8">
         <v>9</v>
@@ -3415,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="5"/>
@@ -3428,7 +3870,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="8">
         <v>9</v>
@@ -3470,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="5"/>
@@ -3483,7 +3925,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="8">
         <v>9</v>
@@ -3536,7 +3978,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="8">
         <v>9</v>
@@ -3589,7 +4031,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="8">
         <v>9</v>
@@ -3642,7 +4084,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="8">
         <v>9</v>
@@ -3695,7 +4137,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="8">
         <v>2</v>
@@ -3748,7 +4190,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="8">
         <v>9</v>
@@ -3801,7 +4243,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="8">
         <v>9</v>
@@ -3843,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="5">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="5"/>
@@ -3856,7 +4298,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="8">
         <v>9</v>
@@ -3898,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="5">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="5"/>
@@ -3911,7 +4353,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="8">
         <v>6</v>
@@ -3953,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="5"/>
@@ -3966,7 +4408,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="8">
         <v>9</v>
@@ -4019,7 +4461,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="8">
         <v>9</v>
@@ -4072,7 +4514,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="8">
         <v>9</v>
@@ -4125,7 +4567,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="8">
         <v>9</v>
@@ -4178,7 +4620,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="8">
         <v>9</v>
@@ -4231,7 +4673,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="8">
         <v>9</v>
@@ -4284,7 +4726,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="8">
         <v>3</v>
@@ -4326,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="5">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="5"/>
@@ -4339,7 +4781,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="8">
         <v>3</v>
@@ -4381,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="5">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="Q54" s="7"/>
       <c r="R54" s="5"/>
@@ -4394,7 +4836,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="8">
         <v>2</v>
@@ -4436,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="5">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="5"/>
@@ -4449,7 +4891,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="8">
         <v>1</v>
@@ -4502,7 +4944,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="8">
         <v>1</v>
@@ -4557,7 +4999,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
@@ -4610,7 +5052,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="8">
         <v>4</v>
@@ -4663,7 +5105,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="8">
         <v>6</v>
@@ -4716,7 +5158,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="8">
         <v>9</v>
@@ -4769,7 +5211,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" s="8">
         <v>1</v>
@@ -4811,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="5">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="Q62" s="7"/>
       <c r="R62" s="5"/>
@@ -4824,7 +5266,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" s="8">
         <v>3</v>
@@ -4866,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="5">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="5"/>
@@ -4878,7 +5320,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="8">
         <v>5</v>
@@ -4920,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="5">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="Q64" s="7"/>
       <c r="R64" s="5"/>
@@ -4932,7 +5374,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="8">
         <v>9</v>
@@ -4984,7 +5426,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="8">
         <v>2</v>
@@ -5036,7 +5478,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="8">
         <v>9</v>
@@ -5088,7 +5530,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="8">
         <v>9</v>
@@ -5140,7 +5582,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="8">
         <v>3</v>
@@ -5192,7 +5634,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="8">
         <v>3</v>
@@ -5244,7 +5686,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="8">
         <v>1</v>
@@ -5286,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="5">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q71" s="7"/>
       <c r="R71" s="5"/>
@@ -5298,7 +5740,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="8">
         <v>2</v>
@@ -5340,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q72" s="7"/>
       <c r="R72" s="5"/>
@@ -5352,7 +5794,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="8">
         <v>3</v>
@@ -5394,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="5">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="Q73" s="7"/>
       <c r="R73" s="5"/>
@@ -5406,7 +5848,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="8">
         <v>2</v>
@@ -5458,7 +5900,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" s="8">
         <v>2</v>
@@ -5510,7 +5952,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="8">
         <v>9</v>
@@ -5562,7 +6004,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="8">
         <v>9</v>
@@ -5614,7 +6056,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="8">
         <v>2</v>
@@ -5666,7 +6108,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="8">
         <v>9</v>
@@ -5718,7 +6160,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="8">
         <v>2</v>
@@ -5760,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="5">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="Q80" s="7">
         <v>1</v>
@@ -5774,7 +6216,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="8">
         <v>1</v>
@@ -5816,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="5">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="Q81" s="7"/>
       <c r="R81" s="5"/>
@@ -5828,7 +6270,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="8">
         <v>4</v>
@@ -5870,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="5">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="Q82" s="7"/>
       <c r="R82" s="5"/>
@@ -5882,7 +6324,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="8">
         <v>9</v>
@@ -5934,7 +6376,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="8">
         <v>9</v>
@@ -5986,7 +6428,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" s="8">
         <v>9</v>
@@ -6038,7 +6480,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="8">
         <v>9</v>
@@ -6090,7 +6532,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C87" s="8">
         <v>9</v>
@@ -6142,7 +6584,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="8">
         <v>9</v>
@@ -6195,7 +6637,8 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12495,8 +12938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38B3E1-EFBC-4864-8968-EC9F1549BB6F}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12504,7 +12947,7 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.125" style="12" customWidth="1"/>
     <col min="6" max="7" width="9.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.75" style="6" customWidth="1"/>
@@ -12517,37 +12960,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -12555,37 +12998,37 @@
         <v>101</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="14">
         <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14">
+        <v>82</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="K2" s="14">
-        <v>101</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -12593,31 +13036,37 @@
         <v>102</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
       </c>
+      <c r="D3" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E3" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="14">
+        <v>83</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K3" s="6">
-        <v>102</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -12625,31 +13074,37 @@
         <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
+      <c r="D4" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="14">
+        <v>84</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="6">
-        <v>103</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -12657,31 +13112,37 @@
         <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
       </c>
+      <c r="D5" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="14">
+        <v>85</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K5" s="6">
-        <v>104</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -12689,31 +13150,37 @@
         <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
+      <c r="D6" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="14">
+        <v>86</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K6" s="6">
-        <v>105</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12721,31 +13188,37 @@
         <v>106</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="6">
         <v>10</v>
       </c>
+      <c r="D7" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="14">
+        <v>87</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K7" s="6">
-        <v>106</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -12753,31 +13226,37 @@
         <v>107</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
       </c>
+      <c r="D8" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E8" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="6">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K8" s="6">
-        <v>19</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -12785,31 +13264,37 @@
         <v>108</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6">
         <v>5</v>
       </c>
+      <c r="D9" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E9" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="6">
+        <v>27</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K9" s="6">
-        <v>29</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -12817,31 +13302,37 @@
         <v>109</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6">
         <v>5</v>
       </c>
+      <c r="D10" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E10" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>136</v>
+      <c r="I10" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="6">
+        <v>18</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K10" s="6">
-        <v>39</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12849,31 +13340,37 @@
         <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
       </c>
+      <c r="D11" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E11" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="6">
+        <v>36</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K11" s="6">
-        <v>49</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -12881,31 +13378,37 @@
         <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
       </c>
+      <c r="D12" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E12" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="6">
+        <v>45</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K12" s="6">
-        <v>59</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -12913,31 +13416,37 @@
         <v>112</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="6">
         <v>5</v>
       </c>
+      <c r="D13" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E13" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="6">
+        <v>54</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K13" s="6">
-        <v>69</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -12945,31 +13454,37 @@
         <v>113</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="6">
         <v>5</v>
       </c>
+      <c r="D14" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E14" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="6">
+        <v>63</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K14" s="6">
-        <v>79</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -12977,31 +13492,37 @@
         <v>114</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
       </c>
+      <c r="D15" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E15" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="6">
+        <v>72</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K15" s="6">
-        <v>89</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13009,31 +13530,37 @@
         <v>115</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6">
         <v>5</v>
       </c>
+      <c r="D16" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E16" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>125</v>
       </c>
       <c r="J16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="6">
+        <v>81</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="K16" s="6">
-        <v>99</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13041,31 +13568,37 @@
         <v>216</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="6">
         <v>10</v>
       </c>
+      <c r="D17" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6">
+        <v>6</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K17" s="6">
-        <v>16</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13073,31 +13606,37 @@
         <v>217</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="6">
         <v>10</v>
       </c>
+      <c r="D18" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6">
+        <v>7</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K18" s="6">
-        <v>17</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -13105,31 +13644,37 @@
         <v>218</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="6">
         <v>10</v>
       </c>
+      <c r="D19" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E19" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6">
+        <v>8</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K19" s="6">
-        <v>18</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -13137,31 +13682,37 @@
         <v>219</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="6">
         <v>10</v>
       </c>
+      <c r="D20" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="6">
+        <v>9</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K20" s="6">
-        <v>19</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -13169,31 +13720,37 @@
         <v>227</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="6">
         <v>10</v>
       </c>
+      <c r="D21" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E21" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="K21" s="6">
+        <v>16</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K21" s="6">
-        <v>27</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -13201,31 +13758,37 @@
         <v>228</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="6">
         <v>10</v>
       </c>
+      <c r="D22" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6">
+        <v>17</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K22" s="6">
-        <v>28</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -13233,31 +13796,37 @@
         <v>229</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="6">
         <v>10</v>
       </c>
+      <c r="D23" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6">
+        <v>18</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K23" s="6">
-        <v>29</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -13265,31 +13834,37 @@
         <v>237</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="6">
         <v>10</v>
       </c>
+      <c r="D24" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E24" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6">
+        <v>25</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K24" s="6">
-        <v>37</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -13297,31 +13872,37 @@
         <v>238</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="6">
         <v>10</v>
       </c>
+      <c r="D25" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="6">
+        <v>26</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K25" s="6">
-        <v>38</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -13329,31 +13910,37 @@
         <v>239</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="6">
         <v>10</v>
       </c>
+      <c r="D26" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="K26" s="6">
+        <v>27</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K26" s="6">
-        <v>39</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -13361,31 +13948,37 @@
         <v>247</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="6">
         <v>10</v>
       </c>
+      <c r="D27" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="6">
+        <v>34</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K27" s="6">
-        <v>47</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -13393,31 +13986,37 @@
         <v>248</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="6">
         <v>10</v>
       </c>
+      <c r="D28" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="K28" s="6">
+        <v>35</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K28" s="6">
-        <v>48</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -13425,31 +14024,37 @@
         <v>249</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" s="6">
         <v>10</v>
       </c>
+      <c r="D29" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J29" s="6" t="s">
+      <c r="K29" s="6">
+        <v>36</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K29" s="6">
-        <v>49</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13457,31 +14062,37 @@
         <v>257</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="6">
         <v>10</v>
       </c>
+      <c r="D30" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="K30" s="6">
+        <v>43</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K30" s="6">
-        <v>57</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13489,31 +14100,37 @@
         <v>258</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
       </c>
+      <c r="D31" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="K31" s="6">
+        <v>44</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K31" s="6">
-        <v>58</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13521,31 +14138,37 @@
         <v>259</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="6">
         <v>10</v>
       </c>
+      <c r="D32" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E32" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="6">
+        <v>45</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K32" s="6">
-        <v>59</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -13553,31 +14176,37 @@
         <v>267</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="6">
         <v>10</v>
       </c>
+      <c r="D33" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="6" t="s">
+      <c r="K33" s="6">
+        <v>52</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K33" s="6">
-        <v>67</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -13585,31 +14214,37 @@
         <v>268</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="6">
         <v>10</v>
       </c>
+      <c r="D34" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E34" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="6">
+        <v>53</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K34" s="6">
-        <v>68</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -13617,31 +14252,37 @@
         <v>269</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" s="6">
         <v>10</v>
       </c>
+      <c r="D35" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="6" t="s">
+      <c r="K35" s="6">
+        <v>54</v>
+      </c>
+      <c r="L35" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K35" s="6">
-        <v>69</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -13649,31 +14290,37 @@
         <v>277</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="6">
         <v>10</v>
       </c>
+      <c r="D36" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E36" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6">
+        <v>61</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K36" s="6">
-        <v>77</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -13681,31 +14328,37 @@
         <v>278</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="6">
         <v>10</v>
       </c>
+      <c r="D37" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E37" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J37" s="6" t="s">
+      <c r="K37" s="6">
+        <v>62</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K37" s="6">
-        <v>78</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -13713,31 +14366,37 @@
         <v>279</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="6">
         <v>10</v>
       </c>
+      <c r="D38" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E38" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" s="6" t="s">
+      <c r="K38" s="6">
+        <v>63</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K38" s="6">
-        <v>79</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -13745,31 +14404,37 @@
         <v>287</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="6">
         <v>10</v>
       </c>
+      <c r="D39" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E39" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="K39" s="6">
+        <v>70</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K39" s="6">
-        <v>87</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -13777,31 +14442,37 @@
         <v>288</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="6">
         <v>10</v>
       </c>
+      <c r="D40" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E40" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="K40" s="6">
+        <v>71</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K40" s="6">
-        <v>88</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -13809,31 +14480,37 @@
         <v>289</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="6">
         <v>10</v>
       </c>
+      <c r="D41" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E41" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="K41" s="6">
+        <v>72</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K41" s="6">
-        <v>89</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -13841,31 +14518,37 @@
         <v>297</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" s="6">
         <v>10</v>
       </c>
+      <c r="D42" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E42" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="6" t="s">
+      <c r="K42" s="6">
+        <v>79</v>
+      </c>
+      <c r="L42" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K42" s="6">
-        <v>97</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -13873,31 +14556,37 @@
         <v>298</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="6">
         <v>10</v>
       </c>
+      <c r="D43" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E43" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6">
+        <v>80</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K43" s="6">
-        <v>98</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -13905,31 +14594,37 @@
         <v>299</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="6">
         <v>10</v>
       </c>
+      <c r="D44" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E44" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J44" s="6" t="s">
+      <c r="K44" s="6">
+        <v>81</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="K44" s="6">
-        <v>99</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -13937,31 +14632,37 @@
         <v>301</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C45" s="6">
         <v>10</v>
       </c>
+      <c r="D45" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E45" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="K45" s="6">
         <v>1</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -13969,31 +14670,37 @@
         <v>302</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="6">
         <v>10</v>
       </c>
+      <c r="D46" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E46" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="K46" s="6">
         <v>2</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -14001,31 +14708,37 @@
         <v>501</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="6">
         <v>10</v>
       </c>
+      <c r="D47" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E47" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="K47" s="6">
         <v>101</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -14033,31 +14746,37 @@
         <v>502</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="6">
         <v>10</v>
       </c>
+      <c r="D48" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E48" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="K48" s="6">
         <v>102</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -14065,31 +14784,37 @@
         <v>503</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49" s="6">
         <v>10</v>
       </c>
+      <c r="D49" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E49" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="K49" s="6">
         <v>103</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -14097,31 +14822,37 @@
         <v>504</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" s="6">
         <v>10</v>
       </c>
+      <c r="D50" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E50" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="K50" s="6">
         <v>104</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -14129,31 +14860,37 @@
         <v>505</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C51" s="6">
         <v>10</v>
       </c>
+      <c r="D51" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E51" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="K51" s="6">
         <v>105</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -14161,31 +14898,37 @@
         <v>506</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52" s="17">
         <v>10</v>
       </c>
+      <c r="D52" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E52" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="K52" s="17">
         <v>106</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -14193,35 +14936,38 @@
         <v>601</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C53" s="14">
         <v>10</v>
       </c>
       <c r="D53" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="G53" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="K53" s="14">
         <f>A53</f>
         <v>601</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -14229,32 +14975,38 @@
         <v>602</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C54" s="6">
         <v>10</v>
       </c>
+      <c r="D54" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E54" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K54" s="6">
         <f t="shared" ref="K54:K62" si="0">A54</f>
         <v>602</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -14262,32 +15014,38 @@
         <v>603</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C55" s="6">
         <v>10</v>
       </c>
+      <c r="D55" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E55" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K55" s="6">
         <f t="shared" si="0"/>
         <v>603</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -14295,32 +15053,38 @@
         <v>604</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C56" s="6">
         <v>10</v>
       </c>
+      <c r="D56" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E56" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K56" s="6">
         <f t="shared" si="0"/>
         <v>604</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -14328,32 +15092,38 @@
         <v>605</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C57" s="6">
         <v>10</v>
       </c>
+      <c r="D57" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E57" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="0"/>
         <v>605</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -14361,32 +15131,38 @@
         <v>606</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C58" s="6">
         <v>10</v>
       </c>
+      <c r="D58" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E58" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="0"/>
         <v>606</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -14394,32 +15170,38 @@
         <v>607</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C59" s="6">
         <v>10</v>
       </c>
+      <c r="D59" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E59" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J59" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K59" s="6">
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -14427,32 +15209,38 @@
         <v>608</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C60" s="6">
         <v>10</v>
       </c>
+      <c r="D60" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E60" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K60" s="6">
         <f t="shared" si="0"/>
         <v>608</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -14460,32 +15248,38 @@
         <v>609</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C61" s="6">
         <v>10</v>
       </c>
+      <c r="D61" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E61" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="0"/>
         <v>609</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -14493,32 +15287,38 @@
         <v>610</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C62" s="6">
         <v>10</v>
       </c>
+      <c r="D62" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E62" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -14526,28 +15326,34 @@
         <v>611</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C63" s="6">
         <v>30</v>
       </c>
+      <c r="D63" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E63" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="L63" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -14555,28 +15361,34 @@
         <v>612</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C64" s="6">
         <v>30</v>
       </c>
+      <c r="D64" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E64" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -14584,28 +15396,34 @@
         <v>613</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C65" s="6">
         <v>30</v>
       </c>
+      <c r="D65" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E65" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -14613,28 +15431,34 @@
         <v>614</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C66" s="6">
         <v>30</v>
       </c>
+      <c r="D66" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E66" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -14642,28 +15466,34 @@
         <v>615</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C67" s="6">
         <v>30</v>
       </c>
+      <c r="D67" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E67" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -14671,28 +15501,34 @@
         <v>616</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C68" s="6">
         <v>30</v>
       </c>
+      <c r="D68" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E68" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -14700,28 +15536,34 @@
         <v>617</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C69" s="6">
         <v>30</v>
       </c>
+      <c r="D69" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E69" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -14729,28 +15571,34 @@
         <v>618</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C70" s="6">
         <v>30</v>
       </c>
+      <c r="D70" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E70" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -14758,28 +15606,34 @@
         <v>619</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C71" s="6">
         <v>30</v>
       </c>
+      <c r="D71" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E71" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -14787,28 +15641,34 @@
         <v>620</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C72" s="6">
         <v>30</v>
       </c>
+      <c r="D72" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E72" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -14816,28 +15676,34 @@
         <v>621</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C73" s="6">
         <v>30</v>
       </c>
+      <c r="D73" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E73" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -14845,28 +15711,34 @@
         <v>622</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C74" s="6">
         <v>30</v>
       </c>
+      <c r="D74" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E74" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -14874,28 +15746,34 @@
         <v>623</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C75" s="6">
         <v>30</v>
       </c>
+      <c r="D75" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E75" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -14903,28 +15781,34 @@
         <v>624</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C76" s="6">
         <v>30</v>
       </c>
+      <c r="D76" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E76" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -14932,28 +15816,34 @@
         <v>625</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C77" s="6">
         <v>30</v>
       </c>
+      <c r="D77" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E77" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -14961,28 +15851,34 @@
         <v>626</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C78" s="6">
         <v>30</v>
       </c>
+      <c r="D78" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E78" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -14990,28 +15886,34 @@
         <v>627</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C79" s="6">
         <v>30</v>
       </c>
+      <c r="D79" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E79" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -15019,28 +15921,34 @@
         <v>628</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C80" s="6">
         <v>30</v>
       </c>
+      <c r="D80" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E80" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -15048,28 +15956,34 @@
         <v>629</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C81" s="6">
         <v>30</v>
       </c>
+      <c r="D81" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E81" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -15077,28 +15991,34 @@
         <v>630</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C82" s="17">
         <v>30</v>
       </c>
+      <c r="D82" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E82" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L82" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -15106,28 +16026,34 @@
         <v>701</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C83" s="6">
         <v>30</v>
       </c>
+      <c r="D83" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E83" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F83" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="J83" s="6" t="s">
+      <c r="L83" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -15135,28 +16061,34 @@
         <v>702</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C84" s="6">
         <v>30</v>
       </c>
+      <c r="D84" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E84" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -15164,34 +16096,34 @@
         <v>703</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C85" s="6">
         <v>30</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>235</v>
+      <c r="D85" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>236</v>
+        <v>200</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -15199,34 +16131,34 @@
         <v>704</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C86" s="6">
         <v>30</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>235</v>
+      <c r="D86" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>236</v>
+        <v>200</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -15234,28 +16166,34 @@
         <v>705</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C87" s="6">
         <v>30</v>
       </c>
+      <c r="D87" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E87" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -15263,28 +16201,34 @@
         <v>706</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C88" s="6">
         <v>30</v>
       </c>
+      <c r="D88" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E88" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -15292,28 +16236,34 @@
         <v>707</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C89" s="6">
         <v>30</v>
       </c>
+      <c r="D89" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E89" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -15321,28 +16271,34 @@
         <v>708</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C90" s="6">
         <v>30</v>
       </c>
+      <c r="D90" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E90" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -15350,28 +16306,34 @@
         <v>709</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C91" s="6">
         <v>30</v>
       </c>
+      <c r="D91" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E91" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -15379,28 +16341,34 @@
         <v>710</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C92" s="6">
         <v>30</v>
       </c>
+      <c r="D92" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E92" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -15411,108 +16379,3299 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38876948-DD73-470D-B747-FDDBCF7CE1EB}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E2DAAA-DC66-4973-9524-2232D847BE01}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>601</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>602</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>603</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>604</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>605</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>606</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>607</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>608</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>609</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>610</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2">
+      <c r="B21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D50" s="6">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="E50" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3">
-        <v>0.75</v>
-      </c>
-      <c r="C3">
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>-2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB06743-ACCF-4C59-9FF4-535C8D0986CA}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="8.625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACC5BE8-114C-4373-A39F-56E6C6CB2487}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>36</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>45</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>52</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>61</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>62</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="6">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>70</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>71</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>72</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>79</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>80</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>81</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5EBBA-F5FC-4D7B-AF7F-4DDF48C04B42}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="6">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="I2" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="6">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>103</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="6">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>104</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="6">
+        <v>60</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="6">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>106</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="6">
+        <v>40</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>201</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>202</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>203</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>204</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>205</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>206</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="6">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>207</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>208</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="6">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>209</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="6">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>30</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>210</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>211</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="6">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6">
+        <v>20</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>212</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="6">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>213</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="6">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6">
+        <v>30</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>214</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6">
+        <v>20</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>215</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="6">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>216</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>217</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="6">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6">
+        <v>20</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>218</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="6">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6">
+        <v>20</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>301</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26" s="6">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>302</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>303</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>10</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>304</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>305</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>306</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>307</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>308</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>309</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>310</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>311</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" s="6">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>312</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D37" s="6">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6">
+        <v>5</v>
+      </c>
+      <c r="F37" s="6">
+        <v>10</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>313</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>5</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>314</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" s="6">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6">
+        <v>10</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>315</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" s="6">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>316</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5</v>
+      </c>
+      <c r="E41" s="6">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>317</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>318</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" s="6">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6">
+        <v>5</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>319</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D44" s="6">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>10</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEB24D3-C761-4432-BD2C-9735B81F0FED}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="6">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB337E0A-D8F5-4391-A82E-9DC9056A65A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09187276-0D7B-4D42-BE21-627EACFCD54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Equipment" sheetId="6" r:id="rId6"/>
     <sheet name="FetterTable" sheetId="7" r:id="rId7"/>
     <sheet name="Allusions" sheetId="8" r:id="rId8"/>
+    <sheet name="BillingOfFight" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="374">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1400,6 +1401,42 @@
   </si>
   <si>
     <t>精卫填海</t>
+  </si>
+  <si>
+    <t>剩余士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方完胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方大胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方小胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方险胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12938,8 +12975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38B3E1-EFBC-4864-8968-EC9F1549BB6F}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16382,7 +16419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E2DAAA-DC66-4973-9524-2232D847BE01}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B51"/>
     </sheetView>
   </sheetViews>
@@ -17419,7 +17456,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B21"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19678,4 +19715,116 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A00B80F-8BBC-43AA-80F0-191D9B0737E6}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09187276-0D7B-4D42-BE21-627EACFCD54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD9EE2B-9EA3-437D-B177-14E04FEAC8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="1500" windowWidth="22080" windowHeight="14100" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="FetterTable" sheetId="7" r:id="rId7"/>
     <sheet name="Allusions" sheetId="8" r:id="rId8"/>
     <sheet name="BillingOfFight" sheetId="9" r:id="rId9"/>
+    <sheet name="NPCTable" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -295,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="428">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,6 +1437,172 @@
   </si>
   <si>
     <t>平局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡id</t>
+  </si>
+  <si>
+    <t>NPC势力</t>
+  </si>
+  <si>
+    <t>剧情文案1</t>
+  </si>
+  <si>
+    <t>剧情文案2</t>
+  </si>
+  <si>
+    <t>出现周目</t>
+  </si>
+  <si>
+    <t>位置1</t>
+  </si>
+  <si>
+    <t>位置2</t>
+  </si>
+  <si>
+    <t>位置3</t>
+  </si>
+  <si>
+    <t>位置4</t>
+  </si>
+  <si>
+    <t>位置5</t>
+  </si>
+  <si>
+    <t>位置6</t>
+  </si>
+  <si>
+    <t>位置7</t>
+  </si>
+  <si>
+    <t>位置8</t>
+  </si>
+  <si>
+    <t>萌新袁绍</t>
+  </si>
+  <si>
+    <t>战斗开始前</t>
+  </si>
+  <si>
+    <t>战斗结束后</t>
+  </si>
+  <si>
+    <t>默认带武器，并且典故全满</t>
+  </si>
+  <si>
+    <t>普通袁绍</t>
+  </si>
+  <si>
+    <t>困难袁绍</t>
+  </si>
+  <si>
+    <t>炼狱袁绍</t>
+  </si>
+  <si>
+    <t>位置9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（美人位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>30,1</t>
+  </si>
+  <si>
+    <t>31,1</t>
+  </si>
+  <si>
+    <t>32,1</t>
+  </si>
+  <si>
+    <t>71,1</t>
+  </si>
+  <si>
+    <t>72,1</t>
+  </si>
+  <si>
+    <t>73,1</t>
+  </si>
+  <si>
+    <t>82,1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>30,2</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t>32,2</t>
+  </si>
+  <si>
+    <t>71,2</t>
+  </si>
+  <si>
+    <t>72,2</t>
+  </si>
+  <si>
+    <t>73,2</t>
+  </si>
+  <si>
+    <t>83,1</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>30,3</t>
+  </si>
+  <si>
+    <t>31,3</t>
+  </si>
+  <si>
+    <t>32,3</t>
+  </si>
+  <si>
+    <t>71,3</t>
+  </si>
+  <si>
+    <t>72,3</t>
+  </si>
+  <si>
+    <t>73,3</t>
+  </si>
+  <si>
+    <t>84,1</t>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,6 +1705,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -6679,6 +6847,3446 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE13C12-3ABA-482B-949C-71F71476DBBC}">
+  <dimension ref="A1:P81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>25</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>30</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>35</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>40</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>45</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <v>50</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>55</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <v>60</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>65</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <v>70</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>75</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <v>80</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <v>85</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
+        <v>90</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
+        <v>10</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
+        <v>15</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6">
+        <v>20</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
+        <v>25</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>30</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6">
+        <v>35</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
+        <v>40</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <v>45</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6">
+        <v>50</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
+        <v>55</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6">
+        <v>60</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <v>65</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6">
+        <v>70</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6">
+        <v>75</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>80</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6">
+        <v>85</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
+        <v>90</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6">
+        <v>5</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6">
+        <v>10</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6">
+        <v>15</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
+        <v>20</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6">
+        <v>25</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6">
+        <v>30</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6">
+        <v>35</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6">
+        <v>40</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6">
+        <v>45</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6">
+        <v>50</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6">
+        <v>55</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6">
+        <v>60</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6">
+        <v>65</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6">
+        <v>70</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6">
+        <v>75</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6">
+        <v>80</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6">
+        <v>85</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6">
+        <v>90</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P81" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B784"/>
@@ -19721,7 +23329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A00B80F-8BBC-43AA-80F0-191D9B0737E6}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C2C70D-50AF-4B33-9E86-A468EC3EA7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8E5D3-FDB4-4F97-93D6-F6E57683783A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="705" windowWidth="22080" windowHeight="14100" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="FetterTable7" sheetId="7" r:id="rId7"/>
     <sheet name="Allusions8" sheetId="8" r:id="rId8"/>
     <sheet name="BillingOfFight" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -295,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="509">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1727,6 +1728,172 @@
   <si>
     <t>毕方,九婴,精卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡id</t>
+  </si>
+  <si>
+    <t>NPC势力</t>
+  </si>
+  <si>
+    <t>剧情文案1</t>
+  </si>
+  <si>
+    <t>剧情文案2</t>
+  </si>
+  <si>
+    <t>出现周目</t>
+  </si>
+  <si>
+    <t>位置1</t>
+  </si>
+  <si>
+    <t>位置2</t>
+  </si>
+  <si>
+    <t>位置3</t>
+  </si>
+  <si>
+    <t>位置4</t>
+  </si>
+  <si>
+    <t>位置5</t>
+  </si>
+  <si>
+    <t>位置6</t>
+  </si>
+  <si>
+    <t>位置7</t>
+  </si>
+  <si>
+    <t>位置8</t>
+  </si>
+  <si>
+    <t>位置9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（美人位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌新袁绍</t>
+  </si>
+  <si>
+    <t>战斗开始前</t>
+  </si>
+  <si>
+    <t>战斗结束后</t>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>30,1</t>
+  </si>
+  <si>
+    <t>31,1</t>
+  </si>
+  <si>
+    <t>32,1</t>
+  </si>
+  <si>
+    <t>71,1</t>
+  </si>
+  <si>
+    <t>72,1</t>
+  </si>
+  <si>
+    <t>73,1</t>
+  </si>
+  <si>
+    <t>82,1</t>
+  </si>
+  <si>
+    <t>默认带武器，并且典故全满</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>30,2</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t>32,2</t>
+  </si>
+  <si>
+    <t>71,2</t>
+  </si>
+  <si>
+    <t>72,2</t>
+  </si>
+  <si>
+    <t>73,2</t>
+  </si>
+  <si>
+    <t>83,1</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>30,3</t>
+  </si>
+  <si>
+    <t>31,3</t>
+  </si>
+  <si>
+    <t>32,3</t>
+  </si>
+  <si>
+    <t>71,3</t>
+  </si>
+  <si>
+    <t>72,3</t>
+  </si>
+  <si>
+    <t>73,3</t>
+  </si>
+  <si>
+    <t>84,1</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>普通袁绍</t>
+  </si>
+  <si>
+    <t>困难袁绍</t>
+  </si>
+  <si>
+    <t>炼狱袁绍</t>
   </si>
 </sst>
 </file>
@@ -6969,6 +7136,3447 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81A481-EC72-4A79-B3F1-992030900AAB}">
+  <dimension ref="A1:P81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>25</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>30</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>35</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>40</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>45</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <v>50</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>55</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <v>60</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>65</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <v>70</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <v>75</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <v>80</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <v>85</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
+        <v>90</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
+        <v>10</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
+        <v>15</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6">
+        <v>20</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
+        <v>25</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>30</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6">
+        <v>35</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
+        <v>40</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <v>45</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6">
+        <v>50</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
+        <v>55</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6">
+        <v>60</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <v>65</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6">
+        <v>70</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6">
+        <v>75</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>80</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6">
+        <v>85</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
+        <v>90</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6">
+        <v>5</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6">
+        <v>10</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6">
+        <v>15</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
+        <v>20</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6">
+        <v>25</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6">
+        <v>30</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6">
+        <v>35</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6">
+        <v>40</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6">
+        <v>45</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6">
+        <v>50</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6">
+        <v>55</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6">
+        <v>60</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6">
+        <v>65</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6">
+        <v>70</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6">
+        <v>75</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6">
+        <v>80</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6">
+        <v>85</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6">
+        <v>90</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P81" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B784"/>
@@ -18724,7 +22332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5EBBA-F5FC-4D7B-AF7F-4DDF48C04B42}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8E5D3-FDB4-4F97-93D6-F6E57683783A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D8B68A-2DD6-4995-9753-4C785C6E9F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="705" windowWidth="22080" windowHeight="14100" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="FetterTable7" sheetId="7" r:id="rId7"/>
     <sheet name="Allusions8" sheetId="8" r:id="rId8"/>
     <sheet name="BillingOfFight" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="NPCTable" sheetId="10" r:id="rId10"/>
+    <sheet name="SoldierSkillTable" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -295,8 +296,66 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>LOVE</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B0EE4383-0C77-4083-994E-E6425FDA374C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{88978461-68FA-4F85-8D9D-2DA9224E6905}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+技能名称</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="528">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1894,13 +1953,70 @@
   </si>
   <si>
     <t>炼狱袁绍</t>
+  </si>
+  <si>
+    <t>skillName</t>
+  </si>
+  <si>
+    <t>盾反</t>
+  </si>
+  <si>
+    <t>盾刺</t>
+  </si>
+  <si>
+    <t>震颤</t>
+  </si>
+  <si>
+    <t>践踏</t>
+  </si>
+  <si>
+    <t>横扫</t>
+  </si>
+  <si>
+    <t>狂斩</t>
+  </si>
+  <si>
+    <t>血战</t>
+  </si>
+  <si>
+    <t>死战</t>
+  </si>
+  <si>
+    <t>穿刺</t>
+  </si>
+  <si>
+    <t>突刺</t>
+  </si>
+  <si>
+    <t>突破</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
+    <t>火计</t>
+  </si>
+  <si>
+    <t>爆炎</t>
+  </si>
+  <si>
+    <t>乱射</t>
+  </si>
+  <si>
+    <t>箭雨</t>
+  </si>
+  <si>
+    <t>地遁</t>
+  </si>
+  <si>
+    <t>天遁</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1997,6 +2113,11 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2079,7 +2200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2118,6 +2239,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7140,8 +7264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81A481-EC72-4A79-B3F1-992030900AAB}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10577,11 +10701,356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457194B4-FE93-4CDD-8033-460059F8F77E}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>96</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B784"/>
   <sheetViews>
-    <sheetView topLeftCell="A772" workbookViewId="0">
+    <sheetView topLeftCell="A670" workbookViewId="0">
       <selection activeCell="E781" sqref="E781"/>
     </sheetView>
   </sheetViews>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D8B68A-2DD6-4995-9753-4C785C6E9F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DDDC55-0F17-4BD6-AA27-A31AC2AE286A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="2700" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="BillingOfFight" sheetId="9" r:id="rId9"/>
     <sheet name="NPCTable" sheetId="10" r:id="rId10"/>
     <sheet name="SoldierSkillTable" sheetId="11" r:id="rId11"/>
+    <sheet name="ForcesTable" sheetId="12" r:id="rId12"/>
+    <sheet name="DifficultyChoose" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -354,8 +356,90 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>LOVE</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{25D2B2B3-7366-430E-B6C7-474D348B8A70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0D5E034B-FC31-4D72-BC43-C68821CD9E1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+势力名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0671FF1D-C764-442E-B6C8-45730B22F3F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+解锁所需声望</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="567">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2010,13 +2094,149 @@
   </si>
   <si>
     <t>天遁</t>
+  </si>
+  <si>
+    <t>forcesName</t>
+  </si>
+  <si>
+    <t>势力说明</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>炎帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚩尤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏羲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女娲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩辕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎帝炎帝怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝黄帝怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔王魔王怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天帝天帝怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娥皇娥皇怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟山钟山怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神农神农怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩辕轩辕怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>玩家初始血量</t>
+  </si>
+  <si>
+    <t>玩家初始金币</t>
+  </si>
+  <si>
+    <t>玩家初始民心</t>
+  </si>
+  <si>
+    <t>玩家初始士气</t>
+  </si>
+  <si>
+    <t>NPC初始血量</t>
+  </si>
+  <si>
+    <t>绿1周目</t>
+  </si>
+  <si>
+    <t>蓝1周目</t>
+  </si>
+  <si>
+    <t>紫1周目</t>
+  </si>
+  <si>
+    <t>橙1周目</t>
+  </si>
+  <si>
+    <t>绿2周目</t>
+  </si>
+  <si>
+    <t>蓝2周目</t>
+  </si>
+  <si>
+    <t>紫2周目</t>
+  </si>
+  <si>
+    <t>橙2周目</t>
+  </si>
+  <si>
+    <t>萌新</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,23 +2331,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2193,6 +2427,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2200,7 +2445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2242,6 +2487,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10705,7 +10958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457194B4-FE93-4CDD-8033-460059F8F77E}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
@@ -11043,6 +11296,434 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F6C634-88FC-401B-9EC4-7580B4870BF6}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="155.375" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510EB1FF-34F1-4E39-8D8B-242BCC92DEA9}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7">
+        <v>65</v>
+      </c>
+      <c r="G2" s="6">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>7</v>
+      </c>
+      <c r="L2" s="6">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6">
+        <v>7</v>
+      </c>
+      <c r="N2" s="6">
+        <v>7</v>
+      </c>
+      <c r="O2" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>55</v>
+      </c>
+      <c r="F3" s="7">
+        <v>55</v>
+      </c>
+      <c r="G3" s="6">
+        <v>150</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="6">
+        <v>150</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45</v>
+      </c>
+      <c r="G4" s="6">
+        <v>200</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="6">
+        <v>200</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6">
+        <v>300</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4</v>
+      </c>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DDDC55-0F17-4BD6-AA27-A31AC2AE286A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CE6B67-2414-4C78-ADF2-F7D2F6AC68FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="2700" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -2344,6 +2344,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -11484,6 +11485,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CE6B67-2414-4C78-ADF2-F7D2F6AC68FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6F98A3-7DFD-4088-B9EC-89FFD2A0D296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1035" windowWidth="22080" windowHeight="14100" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -434,12 +434,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1A1F4EA9-53E8-4D77-A28B-A2DAB1B8EAA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+势力名称</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="587">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2129,54 +2153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神农</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轩辕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天帝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎帝炎帝怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄帝黄帝怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔王魔王怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天帝天帝怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娥皇娥皇怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟山钟山怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神农神农怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轩辕轩辕怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么怎么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>难度</t>
   </si>
   <si>
@@ -2230,6 +2206,121 @@
   </si>
   <si>
     <t>炼狱</t>
+  </si>
+  <si>
+    <t>羲和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金乌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大禹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渭河以南，有一富庶之国。瑞气蓬生，沃野千里。烈山氏族长炎帝神农率火正祝融、水正共工，战将刑天等部众安居于此。数年之后，北部边境常有盗窃侵略之事，疑轩辕氏部族所为。然炎帝性温，不予追之。又过数年，盗窃之事愈加猖獗，水正共工，战将刑天皆请战。炎帝默许之。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渭河以北，穷山恶水，常有妖兽出没。又有数百部族，相互为敌，兵戈不断。至轩辕氏出一个奇人，天生不惧妖兽，纳常先、大鸿为臣，拜力牧、风后为将，又得九天玄女之助，一统北方部族，自号为黄帝。与炎帝部族、蚩尤部族鼎足而立。</t>
+  </si>
+  <si>
+    <t>渭河以南，有一富庶之国。瑞气蓬生，沃野千里。烈山氏族长炎帝神农率火正祝融、水正共工，战将刑天等部众安居于此。数年之后，北部边境常有盗窃侵略之事，疑轩辕氏部族所为。然炎帝性温，不予追之。又过数年，盗窃之事愈加猖獗，水正共工，战将刑天皆请战。炎帝默许之。</t>
+  </si>
+  <si>
+    <t>炎帝神农</t>
+  </si>
+  <si>
+    <t>黄帝轩辕</t>
+  </si>
+  <si>
+    <t>魔王蚩尤</t>
+  </si>
+  <si>
+    <t>御日羲和</t>
+  </si>
+  <si>
+    <t>娥皇女娲</t>
+  </si>
+  <si>
+    <t>钟山烛阴</t>
+  </si>
+  <si>
+    <t>太虚金乌</t>
+  </si>
+  <si>
+    <t>大荒混沌</t>
+  </si>
+  <si>
+    <t>天帝伏羲</t>
+  </si>
+  <si>
+    <t>贤圣大禹</t>
+  </si>
+  <si>
+    <t>逍遥</t>
+  </si>
+  <si>
+    <t>势力战棋文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forcesAllName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2446,7 +2537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2496,6 +2587,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11302,20 +11396,22 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F6C634-88FC-401B-9EC4-7580B4870BF6}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="155.375" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -11328,8 +11424,14 @@
       <c r="D1" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -11337,13 +11439,19 @@
         <v>531</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -11351,13 +11459,19 @@
         <v>532</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E3" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -11365,27 +11479,39 @@
         <v>533</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="D5" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -11393,13 +11519,19 @@
         <v>535</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -11407,66 +11539,116 @@
         <v>536</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="D7" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="D8" s="2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="D10" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="D11" s="2">
         <v>10000</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -11480,7 +11662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510EB1FF-34F1-4E39-8D8B-242BCC92DEA9}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
@@ -11498,46 +11680,46 @@
         <v>242</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="O1" s="28" t="s">
         <v>550</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>559</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>561</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -11545,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C2" s="6">
         <v>100</v>
@@ -11592,7 +11774,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C3" s="6">
         <v>100</v>
@@ -11639,7 +11821,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C4" s="6">
         <v>150</v>
@@ -11686,7 +11868,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C5" s="6">
         <v>200</v>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE539FD9-47AC-4596-BAB5-3F0093F25B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055656B-DAF4-4E68-8C3A-BEB90D9665EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1537,10 +1537,6 @@
     <t>羁绊37</t>
   </si>
   <si>
-    <t>[67,68]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武将昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2312,6 +2308,10 @@
   </si>
   <si>
     <t>[26,25,57]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[53,54]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2888,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3405F25B-AC3A-4189-AFD7-78B0BB9AB67B}">
   <dimension ref="A1:U89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2912,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>3</v>
@@ -2924,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>6</v>
@@ -3242,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C7" s="32">
         <v>6</v>
@@ -7687,52 +7687,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -7740,49 +7740,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -7796,34 +7796,34 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P3" s="4"/>
     </row>
@@ -7838,34 +7838,34 @@
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P4" s="4"/>
     </row>
@@ -7880,34 +7880,34 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P5" s="4"/>
     </row>
@@ -7922,34 +7922,34 @@
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P6" s="4"/>
     </row>
@@ -7964,34 +7964,34 @@
         <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P7" s="4"/>
     </row>
@@ -8006,34 +8006,34 @@
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -8048,34 +8048,34 @@
         <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P9" s="4"/>
     </row>
@@ -8090,34 +8090,34 @@
         <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P10" s="4"/>
     </row>
@@ -8132,34 +8132,34 @@
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P11" s="4"/>
     </row>
@@ -8174,34 +8174,34 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P12" s="4"/>
     </row>
@@ -8216,34 +8216,34 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P13" s="4"/>
     </row>
@@ -8258,34 +8258,34 @@
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P14" s="4"/>
     </row>
@@ -8300,34 +8300,34 @@
         <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P15" s="4"/>
     </row>
@@ -8342,34 +8342,34 @@
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P16" s="4"/>
     </row>
@@ -8384,34 +8384,34 @@
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P17" s="4"/>
     </row>
@@ -8426,34 +8426,34 @@
         <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P18" s="4"/>
     </row>
@@ -8468,34 +8468,34 @@
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P19" s="4"/>
     </row>
@@ -8510,34 +8510,34 @@
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P20" s="4"/>
     </row>
@@ -8552,34 +8552,34 @@
         <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P21" s="4"/>
     </row>
@@ -8588,7 +8588,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -8596,34 +8596,34 @@
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P22" s="4"/>
     </row>
@@ -8638,34 +8638,34 @@
         <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P23" s="4"/>
     </row>
@@ -8680,34 +8680,34 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P24" s="4"/>
     </row>
@@ -8722,34 +8722,34 @@
         <v>10</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P25" s="4"/>
     </row>
@@ -8764,34 +8764,34 @@
         <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P26" s="4"/>
     </row>
@@ -8806,34 +8806,34 @@
         <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P27" s="4"/>
     </row>
@@ -8848,34 +8848,34 @@
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P28" s="4"/>
     </row>
@@ -8890,34 +8890,34 @@
         <v>30</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P29" s="4"/>
     </row>
@@ -8932,34 +8932,34 @@
         <v>35</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P30" s="4"/>
     </row>
@@ -8974,34 +8974,34 @@
         <v>40</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P31" s="4"/>
     </row>
@@ -9016,34 +9016,34 @@
         <v>45</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P32" s="4"/>
     </row>
@@ -9058,34 +9058,34 @@
         <v>50</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P33" s="4"/>
     </row>
@@ -9100,34 +9100,34 @@
         <v>55</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P34" s="4"/>
     </row>
@@ -9142,34 +9142,34 @@
         <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P35" s="4"/>
     </row>
@@ -9184,34 +9184,34 @@
         <v>65</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P36" s="4"/>
     </row>
@@ -9226,34 +9226,34 @@
         <v>70</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P37" s="4"/>
     </row>
@@ -9268,34 +9268,34 @@
         <v>75</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P38" s="4"/>
     </row>
@@ -9310,34 +9310,34 @@
         <v>80</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P39" s="4"/>
     </row>
@@ -9352,34 +9352,34 @@
         <v>85</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P40" s="4"/>
     </row>
@@ -9394,34 +9394,34 @@
         <v>90</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G41" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P41" s="4"/>
     </row>
@@ -9430,7 +9430,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -9438,34 +9438,34 @@
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P42" s="4"/>
     </row>
@@ -9480,34 +9480,34 @@
         <v>2</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P43" s="4"/>
     </row>
@@ -9522,34 +9522,34 @@
         <v>5</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="N44" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="O44" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P44" s="4"/>
     </row>
@@ -9564,34 +9564,34 @@
         <v>10</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P45" s="4"/>
     </row>
@@ -9606,34 +9606,34 @@
         <v>15</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="N46" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="O46" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P46" s="4"/>
     </row>
@@ -9648,34 +9648,34 @@
         <v>20</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G47" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P47" s="4"/>
     </row>
@@ -9690,34 +9690,34 @@
         <v>25</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="O48" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P48" s="4"/>
     </row>
@@ -9732,34 +9732,34 @@
         <v>30</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P49" s="4"/>
     </row>
@@ -9774,34 +9774,34 @@
         <v>35</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G50" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P50" s="4"/>
     </row>
@@ -9816,34 +9816,34 @@
         <v>40</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="L51" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="M51" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="N51" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P51" s="4"/>
     </row>
@@ -9858,34 +9858,34 @@
         <v>45</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="L52" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="N52" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="O52" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P52" s="4"/>
     </row>
@@ -9900,34 +9900,34 @@
         <v>50</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="L53" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="O53" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P53" s="4"/>
     </row>
@@ -9942,34 +9942,34 @@
         <v>55</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="L54" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="N54" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="O54" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P54" s="4"/>
     </row>
@@ -9984,34 +9984,34 @@
         <v>60</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="N55" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P55" s="4"/>
     </row>
@@ -10026,34 +10026,34 @@
         <v>65</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G56" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="N56" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P56" s="4"/>
     </row>
@@ -10068,34 +10068,34 @@
         <v>70</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="L57" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="M57" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="O57" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P57" s="4"/>
     </row>
@@ -10110,34 +10110,34 @@
         <v>75</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="L58" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="M58" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="N58" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="O58" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P58" s="4"/>
     </row>
@@ -10152,34 +10152,34 @@
         <v>80</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="L59" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="M59" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="N59" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P59" s="4"/>
     </row>
@@ -10194,34 +10194,34 @@
         <v>85</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="L60" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="N60" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P60" s="4"/>
     </row>
@@ -10236,34 +10236,34 @@
         <v>90</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="L61" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="N61" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P61" s="4"/>
     </row>
@@ -10272,7 +10272,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -10280,34 +10280,34 @@
         <v>1</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G62" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="L62" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="M62" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="N62" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P62" s="4"/>
     </row>
@@ -10322,34 +10322,34 @@
         <v>2</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="M63" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="O63" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P63" s="4"/>
     </row>
@@ -10364,34 +10364,34 @@
         <v>5</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="L64" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="M64" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="N64" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="O64" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P64" s="4"/>
     </row>
@@ -10406,34 +10406,34 @@
         <v>10</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="L65" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="N65" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="O65" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P65" s="4"/>
     </row>
@@ -10448,34 +10448,34 @@
         <v>15</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="J66" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="K66" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="L66" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="N66" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="O66" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P66" s="4"/>
     </row>
@@ -10490,34 +10490,34 @@
         <v>20</v>
       </c>
       <c r="F67" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="L67" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="M67" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="O67" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P67" s="4"/>
     </row>
@@ -10532,34 +10532,34 @@
         <v>25</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="L68" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P68" s="4"/>
     </row>
@@ -10574,34 +10574,34 @@
         <v>30</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="J69" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="L69" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="M69" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="O69" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P69" s="4"/>
     </row>
@@ -10616,34 +10616,34 @@
         <v>35</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="L70" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="M70" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="N70" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="O70" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P70" s="4"/>
     </row>
@@ -10658,34 +10658,34 @@
         <v>40</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="J71" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="K71" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="L71" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="M71" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M71" s="4" t="s">
+      <c r="N71" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="O71" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P71" s="4"/>
     </row>
@@ -10700,34 +10700,34 @@
         <v>45</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="K72" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="L72" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="M72" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M72" s="4" t="s">
+      <c r="N72" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="O72" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P72" s="4"/>
     </row>
@@ -10742,34 +10742,34 @@
         <v>50</v>
       </c>
       <c r="F73" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="K73" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="L73" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="M73" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="N73" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="O73" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P73" s="4"/>
     </row>
@@ -10784,34 +10784,34 @@
         <v>55</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G74" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="I74" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="J74" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="K74" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="L74" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="M74" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="N74" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="O74" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P74" s="4"/>
     </row>
@@ -10826,34 +10826,34 @@
         <v>60</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="M75" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M75" s="4" t="s">
+      <c r="N75" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="O75" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P75" s="4"/>
     </row>
@@ -10868,34 +10868,34 @@
         <v>65</v>
       </c>
       <c r="F76" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="I76" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="K76" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="L76" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="M76" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M76" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="O76" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P76" s="4"/>
     </row>
@@ -10910,34 +10910,34 @@
         <v>70</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G77" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="K77" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="L77" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="M77" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M77" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="O77" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P77" s="4"/>
     </row>
@@ -10952,34 +10952,34 @@
         <v>75</v>
       </c>
       <c r="F78" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="L78" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="M78" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="O78" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P78" s="4"/>
     </row>
@@ -10994,34 +10994,34 @@
         <v>80</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="I79" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J79" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="L79" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="L79" s="4" t="s">
+      <c r="M79" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="N79" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="O79" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="P79" s="4"/>
     </row>
@@ -11036,34 +11036,34 @@
         <v>85</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="L80" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="M80" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="N80" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="O80" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="P80" s="4"/>
     </row>
@@ -11078,34 +11078,34 @@
         <v>90</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="H81" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="I81" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="K81" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="L81" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="M81" s="4" t="s">
+      <c r="N81" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N81" s="4" t="s">
+      <c r="O81" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="P81" s="4"/>
     </row>
@@ -11134,7 +11134,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11142,7 +11142,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11150,7 +11150,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11158,7 +11158,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11166,7 +11166,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11174,7 +11174,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11182,7 +11182,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11190,7 +11190,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11198,7 +11198,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11206,7 +11206,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11214,7 +11214,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11222,7 +11222,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11230,7 +11230,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11238,7 +11238,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11246,7 +11246,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11254,7 +11254,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11262,7 +11262,7 @@
         <v>86</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11270,7 +11270,7 @@
         <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11278,7 +11278,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -11483,19 +11483,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11503,19 +11503,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11523,19 +11523,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11543,19 +11543,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11563,19 +11563,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D5" s="2">
         <v>600</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11583,19 +11583,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11603,19 +11603,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D7" s="2">
         <v>2000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11623,19 +11623,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D8" s="2">
         <v>4000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11643,19 +11643,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11663,19 +11663,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D10" s="2">
         <v>8000</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11683,19 +11683,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D11" s="2">
         <v>10000</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11703,19 +11703,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>513</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>514</v>
       </c>
       <c r="D12" s="2">
         <v>15000</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -11747,46 +11747,46 @@
         <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="23" t="s">
         <v>503</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -11794,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -11841,7 +11841,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
@@ -11888,7 +11888,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C4" s="4">
         <v>150</v>
@@ -11935,7 +11935,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C5" s="4">
         <v>200</v>
@@ -23811,8 +23811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5EBBA-F5FC-4D7B-AF7F-4DDF48C04B42}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23850,7 +23850,7 @@
         <v>311</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -23861,7 +23861,7 @@
         <v>175</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D2" s="4">
         <v>40</v>
@@ -23882,7 +23882,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -23893,7 +23893,7 @@
         <v>178</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D3" s="4">
         <v>40</v>
@@ -23914,7 +23914,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -23925,7 +23925,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
@@ -23946,7 +23946,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -23957,7 +23957,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D5" s="4">
         <v>60</v>
@@ -23978,7 +23978,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -23989,7 +23989,7 @@
         <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D6" s="4">
         <v>40</v>
@@ -24010,7 +24010,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24021,7 +24021,7 @@
         <v>182</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D7" s="4">
         <v>40</v>
@@ -24042,7 +24042,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24053,7 +24053,7 @@
         <v>329</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24085,7 +24085,7 @@
         <v>330</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D9" s="4">
         <v>20</v>
@@ -24106,7 +24106,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24117,7 +24117,7 @@
         <v>331</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>365</v>
+        <v>586</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24149,7 +24149,7 @@
         <v>332</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D11" s="4">
         <v>20</v>
@@ -24170,7 +24170,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24181,7 +24181,7 @@
         <v>333</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D12" s="4">
         <v>20</v>
@@ -24202,7 +24202,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24213,7 +24213,7 @@
         <v>334</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D13" s="4">
         <v>30</v>
@@ -24234,7 +24234,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24245,7 +24245,7 @@
         <v>335</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D14" s="4">
         <v>20</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24277,7 +24277,7 @@
         <v>336</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D15" s="4">
         <v>20</v>
@@ -24298,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24309,7 +24309,7 @@
         <v>337</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D16" s="4">
         <v>30</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24341,7 +24341,7 @@
         <v>338</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -24362,7 +24362,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24373,7 +24373,7 @@
         <v>339</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D18" s="4">
         <v>20</v>
@@ -24394,7 +24394,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24405,7 +24405,7 @@
         <v>340</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D19" s="4">
         <v>20</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24437,7 +24437,7 @@
         <v>341</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D20" s="4">
         <v>30</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24469,7 +24469,7 @@
         <v>342</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D21" s="4">
         <v>20</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24501,7 +24501,7 @@
         <v>343</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D22" s="4">
         <v>20</v>
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24533,7 +24533,7 @@
         <v>344</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D23" s="4">
         <v>20</v>
@@ -24554,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24565,7 +24565,7 @@
         <v>345</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -24586,7 +24586,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24597,7 +24597,7 @@
         <v>346</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D25" s="4">
         <v>20</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24629,7 +24629,7 @@
         <v>347</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D26" s="4">
         <v>10</v>
@@ -24650,7 +24650,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24661,7 +24661,7 @@
         <v>348</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24693,7 +24693,7 @@
         <v>349</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D28" s="4">
         <v>10</v>
@@ -24714,7 +24714,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24725,7 +24725,7 @@
         <v>350</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
@@ -24746,18 +24746,18 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D30" s="4">
         <v>5</v>
@@ -24778,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24789,7 +24789,7 @@
         <v>352</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24821,7 +24821,7 @@
         <v>353</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D32" s="4">
         <v>5</v>
@@ -24842,7 +24842,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24853,7 +24853,7 @@
         <v>354</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D33" s="4">
         <v>5</v>
@@ -24874,7 +24874,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24885,7 +24885,7 @@
         <v>355</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D34" s="4">
         <v>5</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24917,7 +24917,7 @@
         <v>356</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D35" s="4">
         <v>5</v>
@@ -24938,7 +24938,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24949,7 +24949,7 @@
         <v>356</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D36" s="4">
         <v>5</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24981,7 +24981,7 @@
         <v>357</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D37" s="4">
         <v>10</v>
@@ -25002,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -25013,7 +25013,7 @@
         <v>358</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D38" s="4">
         <v>5</v>
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -25045,7 +25045,7 @@
         <v>359</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D39" s="4">
         <v>10</v>
@@ -25066,18 +25066,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D40" s="4">
         <v>5</v>
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -25109,7 +25109,7 @@
         <v>361</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D41" s="4">
         <v>5</v>
@@ -25130,7 +25130,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -25141,7 +25141,7 @@
         <v>362</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D42" s="4">
         <v>5</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -25173,7 +25173,7 @@
         <v>363</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D43" s="4">
         <v>5</v>
@@ -25194,7 +25194,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -25205,7 +25205,7 @@
         <v>364</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D44" s="4">
         <v>10</v>
@@ -25226,7 +25226,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055656B-DAF4-4E68-8C3A-BEB90D9665EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C072B581-AE65-42AE-834B-DA1EF515B647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="22080" windowHeight="14100" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="SoldierSkillTable" sheetId="11" r:id="rId11"/>
     <sheet name="ForcesTable" sheetId="12" r:id="rId12"/>
     <sheet name="DifficultyChoose" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,6 +56,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -63,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,6 +80,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -85,6 +89,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,6 +104,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">LOVE:兵种
@@ -108,6 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1、盾兵 2、象兵 3、戟兵 4、禁卫 5、枪兵 6、骑兵 7、军师 8、工兵 9、方士</t>
@@ -121,6 +128,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:稀有度
@@ -138,6 +146,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -146,6 +155,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -160,6 +170,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -168,6 +179,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -182,6 +194,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -190,6 +203,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -423,8 +437,162 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>LOVE</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4B583D3F-3EA2-414D-AEA3-BA571344ECAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7F00522B-F310-4066-A010-30056CEB1244}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CD493D31-DBF7-4CE2-9805-943B019C75D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+升级经验</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A7FAEC7D-7F73-46E5-8833-0A35F930B1FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+每周目获得的金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{210B581C-55E5-461A-85C5-624D8E1D6A2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上阵数目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B97D00F6-8312-4393-A204-F6F87F20589A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LOVE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+备战人数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="592">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2313,13 +2481,28 @@
   <si>
     <t>[53,54]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>battleNum</t>
+  </si>
+  <si>
+    <t>prepareNum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2411,29 +2594,21 @@
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -11984,6 +12159,244 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ABABC6-6C28-4F2E-8EEF-F82F70B0D0F4}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B793"/>
@@ -23811,7 +24224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5EBBA-F5FC-4D7B-AF7F-4DDF48C04B42}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Unity-Pj\ChinaGame\20191010Pj\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\字走三国\ZZSG\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C072B581-AE65-42AE-834B-DA1EF515B647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85261CAA-E0F0-4BF9-91E3-B9DD599945EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="22080" windowHeight="14100" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="1590" windowWidth="21600" windowHeight="11385" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="SoldierSkillTable" sheetId="11" r:id="rId11"/>
     <sheet name="ForcesTable" sheetId="12" r:id="rId12"/>
     <sheet name="DifficultyChoose" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
+    <sheet name="LevelTable" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -12164,7 +12164,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\字走三国\ZZSG\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85261CAA-E0F0-4BF9-91E3-B9DD599945EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD127E-6214-4537-AC5E-7CF5D99AA108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="1590" windowWidth="21600" windowHeight="11385" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -303,14 +303,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{88978461-68FA-4F85-8D9D-2DA9224E6905}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{63FF03DD-5328-4975-BAB4-6C51878CC9DD}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>LOVE:</t>
@@ -319,7 +318,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -592,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="611">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2046,18 +2044,6 @@
     <t>skillName</t>
   </si>
   <si>
-    <t>盾反</t>
-  </si>
-  <si>
-    <t>盾刺</t>
-  </si>
-  <si>
-    <t>震颤</t>
-  </si>
-  <si>
-    <t>践踏</t>
-  </si>
-  <si>
     <t>横扫</t>
   </si>
   <si>
@@ -2076,12 +2062,6 @@
     <t>突刺</t>
   </si>
   <si>
-    <t>突破</t>
-  </si>
-  <si>
-    <t>冲锋</t>
-  </si>
-  <si>
     <t>火计</t>
   </si>
   <si>
@@ -2092,12 +2072,6 @@
   </si>
   <si>
     <t>箭雨</t>
-  </si>
-  <si>
-    <t>地遁</t>
-  </si>
-  <si>
-    <t>天遁</t>
   </si>
   <si>
     <t>forcesName</t>
@@ -2496,13 +2470,99 @@
   </si>
   <si>
     <t>prepareNum</t>
+  </si>
+  <si>
+    <t>刃甲</t>
+  </si>
+  <si>
+    <t>刺盾</t>
+  </si>
+  <si>
+    <t>汲取</t>
+  </si>
+  <si>
+    <t>嗜血</t>
+  </si>
+  <si>
+    <t>灵巧</t>
+  </si>
+  <si>
+    <t>瞬闪</t>
+  </si>
+  <si>
+    <t>复生</t>
+  </si>
+  <si>
+    <t>回天</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量提升10%，反弹20%近战伤害，减少受到10%远程伤害</t>
+  </si>
+  <si>
+    <t>血量提升20%，反弹40%近战伤害，减少受到20%远程伤害</t>
+  </si>
+  <si>
+    <t>防御增加10点，将造成伤害的30%转化为自身血量</t>
+  </si>
+  <si>
+    <t>防御增加15点，将造成伤害的60%转化为自身血量</t>
+  </si>
+  <si>
+    <t>血量提升10%，战斗中每损失20%血量，获得风之助，提升10%闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量提升20%，战斗中每损失20%血量，获得风之助，提升15%闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升10%，每次攻击提升20%伤害，10%防御，可叠加3次</t>
+  </si>
+  <si>
+    <t>攻击提升20%，每次攻击提升30%伤害，10%防御，可叠加3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升10%，突刺敌方后排50%伤害</t>
+  </si>
+  <si>
+    <t>攻击提升20%，突刺敌方后排80%伤害</t>
+  </si>
+  <si>
+    <t>攻击提升10%，攻击同一排敌人，每个造成75%伤害</t>
+  </si>
+  <si>
+    <t>攻击提升20%，攻击同一排敌人，每个造成100%伤害</t>
+  </si>
+  <si>
+    <t>攻击提升10%，随机攻击2个目标，每个造成30%伤害，20%几率击晕1回合</t>
+  </si>
+  <si>
+    <t>攻击提升20%，随机攻击3个目标，每个造成45%伤害，20%几率击晕1回合</t>
+  </si>
+  <si>
+    <t>攻击提升10%，随机攻击3个目标，每个造成45%伤害</t>
+  </si>
+  <si>
+    <t>攻击提升20%，随机攻击4个目标，每个造成50%伤害</t>
+  </si>
+  <si>
+    <t>攻击提升10%，治疗2个血量最低的友方目标，治疗量为方式伤害的80%</t>
+  </si>
+  <si>
+    <t>攻击提升20%，治疗3个血量最低的友方目标，治疗量为方式伤害的100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2611,6 +2671,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2710,7 +2792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2770,6 +2852,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3087,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>3</v>
@@ -3099,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>6</v>
@@ -3417,7 +3505,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C7" s="32">
         <v>6</v>
@@ -11293,340 +11381,399 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457194B4-FE93-4CDD-8033-460059F8F77E}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="100.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="35" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="35" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>46</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>53</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>56</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>63</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>66</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>73</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>76</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>83</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>86</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>93</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="C18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>96</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="C19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="35"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="35"/>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="35"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="35"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="35"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="35"/>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="35"/>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="35"/>
     </row>
     <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="35"/>
     </row>
     <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="35"/>
     </row>
     <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="35"/>
     </row>
     <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="35"/>
     </row>
     <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="35"/>
     </row>
     <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="35"/>
     </row>
     <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="35"/>
     </row>
     <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="35"/>
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="35"/>
     </row>
     <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="35"/>
     </row>
     <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="35"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="35"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="35"/>
     </row>
     <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="35"/>
     </row>
     <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="35"/>
     </row>
     <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="35"/>
     </row>
     <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="35"/>
     </row>
     <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="35"/>
     </row>
     <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="35"/>
     </row>
     <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="35"/>
     </row>
     <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="35"/>
     </row>
     <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="35"/>
     </row>
     <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11658,19 +11805,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11678,19 +11825,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11698,19 +11845,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11718,19 +11865,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11738,19 +11885,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D5" s="2">
         <v>600</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11758,19 +11905,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11778,19 +11925,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D7" s="2">
         <v>2000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11798,19 +11945,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D8" s="2">
         <v>4000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11818,19 +11965,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11838,19 +11985,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D10" s="2">
         <v>8000</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11858,19 +12005,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D11" s="2">
         <v>10000</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -11878,19 +12025,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D12" s="2">
         <v>15000</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -11922,46 +12069,46 @@
         <v>242</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="K1" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="L1" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="M1" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="N1" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="O1" s="23" t="s">
         <v>495</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -11969,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
@@ -12016,7 +12163,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
@@ -12063,7 +12210,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C4" s="4">
         <v>150</v>
@@ -12110,7 +12257,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C5" s="4">
         <v>200</v>
@@ -12163,8 +12310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ABABC6-6C28-4F2E-8EEF-F82F70B0D0F4}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12181,19 +12328,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
@@ -24274,7 +24421,7 @@
         <v>175</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D2" s="4">
         <v>40</v>
@@ -24306,7 +24453,7 @@
         <v>178</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D3" s="4">
         <v>40</v>
@@ -24338,7 +24485,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
@@ -24370,7 +24517,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D5" s="4">
         <v>60</v>
@@ -24402,7 +24549,7 @@
         <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D6" s="4">
         <v>40</v>
@@ -24434,7 +24581,7 @@
         <v>182</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D7" s="4">
         <v>40</v>
@@ -24466,7 +24613,7 @@
         <v>329</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
@@ -24498,7 +24645,7 @@
         <v>330</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D9" s="4">
         <v>20</v>
@@ -24530,7 +24677,7 @@
         <v>331</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
@@ -24562,7 +24709,7 @@
         <v>332</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D11" s="4">
         <v>20</v>
@@ -24594,7 +24741,7 @@
         <v>333</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D12" s="4">
         <v>20</v>
@@ -24615,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -24626,7 +24773,7 @@
         <v>334</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D13" s="4">
         <v>30</v>
@@ -24658,7 +24805,7 @@
         <v>335</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D14" s="4">
         <v>20</v>
@@ -24690,7 +24837,7 @@
         <v>336</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D15" s="4">
         <v>20</v>
@@ -24722,7 +24869,7 @@
         <v>337</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D16" s="4">
         <v>30</v>
@@ -24754,7 +24901,7 @@
         <v>338</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -24786,7 +24933,7 @@
         <v>339</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D18" s="4">
         <v>20</v>
@@ -24818,7 +24965,7 @@
         <v>340</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D19" s="4">
         <v>20</v>
@@ -24850,7 +24997,7 @@
         <v>341</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D20" s="4">
         <v>30</v>
@@ -24882,7 +25029,7 @@
         <v>342</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D21" s="4">
         <v>20</v>
@@ -24914,7 +25061,7 @@
         <v>343</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D22" s="4">
         <v>20</v>
@@ -24946,7 +25093,7 @@
         <v>344</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D23" s="4">
         <v>20</v>
@@ -24978,7 +25125,7 @@
         <v>345</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -25010,7 +25157,7 @@
         <v>346</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D25" s="4">
         <v>20</v>
@@ -25042,7 +25189,7 @@
         <v>347</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D26" s="4">
         <v>10</v>
@@ -25074,7 +25221,7 @@
         <v>348</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D27" s="4">
         <v>5</v>
@@ -25106,7 +25253,7 @@
         <v>349</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D28" s="4">
         <v>10</v>
@@ -25138,7 +25285,7 @@
         <v>350</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
@@ -25170,7 +25317,7 @@
         <v>351</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D30" s="4">
         <v>5</v>
@@ -25202,7 +25349,7 @@
         <v>352</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
@@ -25234,7 +25381,7 @@
         <v>353</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D32" s="4">
         <v>5</v>
@@ -25266,7 +25413,7 @@
         <v>354</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D33" s="4">
         <v>5</v>
@@ -25298,7 +25445,7 @@
         <v>355</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D34" s="4">
         <v>5</v>
@@ -25330,7 +25477,7 @@
         <v>356</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D35" s="4">
         <v>5</v>
@@ -25362,7 +25509,7 @@
         <v>356</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D36" s="4">
         <v>5</v>
@@ -25394,7 +25541,7 @@
         <v>357</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D37" s="4">
         <v>10</v>
@@ -25426,7 +25573,7 @@
         <v>358</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D38" s="4">
         <v>5</v>
@@ -25458,7 +25605,7 @@
         <v>359</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D39" s="4">
         <v>10</v>
@@ -25490,7 +25637,7 @@
         <v>360</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D40" s="4">
         <v>5</v>
@@ -25522,7 +25669,7 @@
         <v>361</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D41" s="4">
         <v>5</v>
@@ -25554,7 +25701,7 @@
         <v>362</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="D42" s="4">
         <v>5</v>
@@ -25586,7 +25733,7 @@
         <v>363</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D43" s="4">
         <v>5</v>
@@ -25618,7 +25765,7 @@
         <v>364</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D44" s="4">
         <v>10</v>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CD127E-6214-4537-AC5E-7CF5D99AA108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C633F44-0997-4FF9-8F67-C7D3D01C4C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26280" yWindow="1035" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -11383,7 +11383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457194B4-FE93-4CDD-8033-460059F8F77E}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -11787,8 +11787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F6C634-88FC-401B-9EC4-7580B4870BF6}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAA\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F4A288-05A0-4D0C-B72E-C3E052998C1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E9CA5-9E8D-4F2F-BAFD-869834ADB58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3949,7 +3949,7 @@
   <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12715,7 +12715,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13475,8 +13475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B793"/>
   <sheetViews>
-    <sheetView topLeftCell="A757" workbookViewId="0">
-      <selection activeCell="H793" sqref="H793"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F794" sqref="F794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29788,8 +29788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5EBBA-F5FC-4D7B-AF7F-4DDF48C04B42}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
+++ b/ThreeKillGame/Assets/StreamingAssets/TableFiles/111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BBB\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\字走三国\ZZSG\trunk\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D02AE5-E70B-4682-B8E1-2A13A3431F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF0CBD-B695-4947-95D3-80EA82284CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2085" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="0" windowWidth="20580" windowHeight="14280" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleTable1" sheetId="2" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -838,7 +839,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="762">
   <si>
     <t>index</t>
   </si>
@@ -3186,12 +3187,28 @@
     <t>forcesName</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>声望奖励：第一名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3279,6 +3296,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3382,7 +3406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3447,6 +3471,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12702,7 +12727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -12964,22 +12989,26 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="1.75" customWidth="1"/>
+    <col min="4" max="4" width="12.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" hidden="1" customWidth="1"/>
+    <col min="8" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0.125" customWidth="1"/>
+    <col min="15" max="15" width="9.25" customWidth="1"/>
+    <col min="16" max="16" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>110</v>
       </c>
@@ -13025,8 +13054,20 @@
       <c r="O1" s="11" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="P1" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -13072,8 +13113,20 @@
       <c r="O2" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="P2" s="34">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>30</v>
+      </c>
+      <c r="R2" s="34">
+        <v>10</v>
+      </c>
+      <c r="S2" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -13119,8 +13172,20 @@
       <c r="O3" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="P3" s="34">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>70</v>
+      </c>
+      <c r="R3" s="34">
+        <v>50</v>
+      </c>
+      <c r="S3" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -13166,8 +13231,20 @@
       <c r="O4" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="P4" s="34">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>120</v>
+      </c>
+      <c r="R4" s="34">
+        <v>100</v>
+      </c>
+      <c r="S4" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -13212,6 +13289,18 @@
       </c>
       <c r="O5" s="8">
         <v>4</v>
+      </c>
+      <c r="P5" s="34">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>170</v>
+      </c>
+      <c r="R5" s="34">
+        <v>150</v>
+      </c>
+      <c r="S5" s="34">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
